--- a/doc/Testfälle.xlsx
+++ b/doc/Testfälle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Repos\erp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F778B8-3887-4A96-BF72-FA437F2D51EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98E00BF-0DC5-4E77-8719-77B936B19042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFCE4AD6-5E1E-4E64-9F22-700647569BA9}"/>
+    <workbookView xWindow="28680" yWindow="-5475" windowWidth="38640" windowHeight="21120" xr2:uid="{BFCE4AD6-5E1E-4E64-9F22-700647569BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Anforderung</t>
   </si>
@@ -210,42 +210,6 @@
   </si>
   <si>
     <t>5/5 Bestellungen wurden korrekt erfasst</t>
-  </si>
-  <si>
-    <t>Zugriff Finanzmodul</t>
-  </si>
-  <si>
-    <t>Es werden 5 User angelegt. Diese haben alle Zugriff auf das Finanzmodul.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5/5 User haben Zugriff.</t>
-  </si>
-  <si>
-    <t>Zugriff Lagermodul</t>
-  </si>
-  <si>
-    <t>Zugriff Einkaufsmodul</t>
-  </si>
-  <si>
-    <t>2/5 User haben keinen Zugriff auf das Lagermodul.</t>
-  </si>
-  <si>
-    <t>Es werden 5 User angelegt. 2 haben keinen Zugriff auf das Lagermodul.</t>
-  </si>
-  <si>
-    <t>Es werden 5 User angelegt. 2 haben keinen Zugriff auf das Einkaufmodul.</t>
-  </si>
-  <si>
-    <t>2/5 User haben keinen Zugriff auf das Finanzmodul.</t>
-  </si>
-  <si>
-    <t>2/2 User haben keinen Zugriff auf das Lagermodul</t>
-  </si>
-  <si>
-    <t>2/2 User haben keinen Zugriff auf das Einkaufsmodul</t>
-  </si>
-  <si>
-    <t>5/5 haben Zugriff auf das Finanzmodul</t>
   </si>
 </sst>
 </file>
@@ -745,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B408EC56-EFD0-45CB-A544-6766DCC6FD64}">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,16 +747,16 @@
     </row>
     <row r="3" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -803,16 +767,16 @@
     </row>
     <row r="4" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -821,18 +785,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
@@ -841,18 +805,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -861,78 +825,78 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -943,16 +907,16 @@
     </row>
     <row r="11" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -961,18 +925,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
@@ -983,16 +947,16 @@
     </row>
     <row r="13" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -1001,113 +965,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>16</v>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D20" s="13"/>
-      <c r="E20" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D22" s="15"/>
-      <c r="E22" s="8" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="16" t="s">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="4:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D24" s="17"/>
-      <c r="E24" s="10" t="s">
+    <row r="21" spans="4:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D21" s="17"/>
+      <c r="E21" s="10" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
